--- a/data/trans_orig/IP22D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCCE557-3392-40BC-9289-C640E97CEB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8BE9D0-0FF2-4254-B5F5-F4F4AC8643D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ADE2F18-4DE9-4B72-830D-54E4398AC495}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85BB5857-D7FD-47B7-A222-49B903D072B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -113,79 +113,88 @@
     <t>98,55%</t>
   </si>
   <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>90,73%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -194,19 +203,19 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -215,7 +224,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -630,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E085993-B1A1-4B6E-BF34-2125E5FB6D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A736011-2CF9-4523-8D5F-A33695BA4FEA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -993,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>11</v>
@@ -1017,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1026,13 +1035,13 @@
         <v>828</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1041,13 +1050,13 @@
         <v>828</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1062,13 +1071,13 @@
         <v>504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1083,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1092,13 +1101,13 @@
         <v>504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1154,7 +1163,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1169,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1184,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1199,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1223,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1238,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1253,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1289,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1304,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1372,10 +1381,10 @@
         <v>48913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1387,10 +1396,10 @@
         <v>43532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1402,10 +1411,10 @@
         <v>92445</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1429,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1438,13 +1447,13 @@
         <v>828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1453,13 +1462,13 @@
         <v>828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,13 +1483,13 @@
         <v>504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1495,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1504,13 +1513,13 @@
         <v>504</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,7 +1575,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8BE9D0-0FF2-4254-B5F5-F4F4AC8643D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A394D4-8FF1-454B-8B66-1DDB0F6F7153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85BB5857-D7FD-47B7-A222-49B903D072B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B951BCE-5C00-486A-ABF3-67AF3481C8D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
@@ -110,121 +110,121 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A736011-2CF9-4523-8D5F-A33695BA4FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB1942-0056-4A0B-9DBF-EB450845191F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -757,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5129</v>
+        <v>8192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -910,25 +910,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
       <c r="I7" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -963,10 +963,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>34365</v>
+        <v>29373</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -978,10 +978,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>28889</v>
+        <v>36341</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -996,7 +996,7 @@
         <v>88</v>
       </c>
       <c r="N8" s="7">
-        <v>63254</v>
+        <v>65714</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -1014,31 +1014,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>828</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>32</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>33</v>
@@ -1065,31 +1065,31 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>504</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>519</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1116,25 +1116,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
       <c r="I11" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1169,10 +1169,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>9418</v>
+        <v>9763</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1184,10 +1184,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1202,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1322,25 +1322,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>14</v>
-      </c>
       <c r="I15" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1355,7 +1355,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1375,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>48913</v>
+        <v>47328</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>47</v>
@@ -1390,10 +1390,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>43532</v>
+        <v>52753</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>49</v>
@@ -1408,7 +1408,7 @@
         <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>92445</v>
+        <v>100081</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>51</v>
@@ -1426,31 +1426,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>828</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>55</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
@@ -1477,31 +1477,31 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>504</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>519</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>60</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>61</v>
@@ -1528,25 +1528,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
         <v>64</v>
       </c>
-      <c r="D19" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
       <c r="I19" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1561,7 +1561,7 @@
         <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
